--- a/Tables/aq_annual_hmf_sum_outlet_50_90.xlsx
+++ b/Tables/aq_annual_hmf_sum_outlet_50_90.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.717228216186911</v>
+        <v>1.792091380767214</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.031987041131849</v>
+        <v>1.593307648905176</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.356989086077403</v>
+        <v>3.660051131514298</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.89685674537414</v>
+        <v>13.44333351918705</v>
       </c>
     </row>
     <row r="12">
